--- a/筆記/用戶訊息 (2).xlsx
+++ b/筆記/用戶訊息 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\JAVA\vue1\筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602CB57D-EB23-4DE5-A769-1C7254C434B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C26B9D-E885-49F1-92B1-1D75E6EE30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,10 +49,10 @@
     <t>https://il.beauty321.com/gallery/articleIMG/month_1607/201607052029547388.jpg</t>
   </si>
   <si>
-    <t>egg2</t>
-  </si>
-  <si>
-    <t>egg2</t>
+    <t>egg3</t>
+  </si>
+  <si>
+    <t>egg3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
